--- a/attendance-files/CCIT/CCIT Attendance.xlsx
+++ b/attendance-files/CCIT/CCIT Attendance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="125">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t>Course Credit:</t>
+  </si>
+  <si>
+    <t>9.7.25</t>
+  </si>
+  <si>
+    <t>16.7.25</t>
+  </si>
+  <si>
+    <t>17.7.25</t>
+  </si>
+  <si>
+    <t>23.7.25</t>
+  </si>
+  <si>
+    <t>24.7.25</t>
+  </si>
+  <si>
+    <t>30.7.25</t>
+  </si>
+  <si>
+    <t>31.7.25</t>
+  </si>
+  <si>
+    <t>5.8.25</t>
+  </si>
+  <si>
+    <t>7.8.25</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -120,6 +147,9 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2021IPM002</t>
   </si>
   <si>
@@ -142,9 +172,6 @@
   </si>
   <si>
     <t>Akshat Mishra</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP048</t>
@@ -382,11 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d-mmm-yyyy"/>
-    <numFmt numFmtId="165" formatCode="d-mmmm-yyyy"/>
-  </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -426,6 +449,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <b/>
       <sz val="11.0"/>
@@ -782,25 +810,25 @@
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="4" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="17" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -809,10 +837,10 @@
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -821,19 +849,19 @@
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -857,7 +885,7 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1095,7 +1123,10 @@
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="2" width="16.43"/>
     <col customWidth="1" min="3" max="3" width="29.57"/>
-    <col customWidth="1" min="4" max="27" width="8.71"/>
+    <col customWidth="1" min="4" max="7" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="11.0"/>
+    <col customWidth="1" min="9" max="9" width="12.0"/>
+    <col customWidth="1" min="10" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1245,21 +1276,33 @@
       <c r="F5" s="26">
         <v>2.0</v>
       </c>
-      <c r="G5" s="27">
-        <v>45847.0</v>
-      </c>
-      <c r="H5" s="28">
-        <v>45854.0</v>
-      </c>
-      <c r="I5" s="29">
-        <v>45855.0</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="G5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="P5" s="30"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1275,52 +1318,52 @@
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="9"/>
@@ -1339,35 +1382,47 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="35">
         <f t="shared" ref="E7:E49" si="1">COUNTIF(G7:P7,"A")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="35">
         <f t="shared" ref="F7:F49" si="2">COUNTIF(G7:P7,"P")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="7"/>
@@ -1386,35 +1441,47 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="7"/>
@@ -1433,35 +1500,47 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="7"/>
@@ -1480,35 +1559,47 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="7"/>
@@ -1527,10 +1618,10 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="35">
@@ -1539,24 +1630,36 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="42"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -1574,35 +1677,47 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="7"/>
@@ -1621,35 +1736,47 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="7"/>
@@ -1668,35 +1795,47 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="7"/>
@@ -1715,10 +1854,10 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="35">
@@ -1727,23 +1866,35 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="7"/>
@@ -1762,35 +1913,47 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+        <v>39</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="7"/>
@@ -1809,35 +1972,47 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="7"/>
@@ -1856,35 +2031,47 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="7"/>
@@ -1903,35 +2090,47 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="7"/>
@@ -1950,35 +2149,47 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="7"/>
@@ -1997,10 +2208,10 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="35">
@@ -2009,23 +2220,35 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+        <v>39</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="7"/>
@@ -2044,35 +2267,47 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="7"/>
@@ -2091,35 +2326,47 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+        <v>39</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="7"/>
@@ -2138,36 +2385,48 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="42"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -2185,35 +2444,47 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P25" s="35"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="7"/>
@@ -2232,35 +2503,47 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="P26" s="35"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="7"/>
@@ -2279,35 +2562,47 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O27" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="7"/>
@@ -2326,35 +2621,47 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="7"/>
@@ -2373,35 +2680,47 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P29" s="35"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="7"/>
@@ -2420,35 +2739,47 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="7"/>
@@ -2467,35 +2798,47 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P31" s="35"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="7"/>
@@ -2514,36 +2857,48 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="42"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -2561,35 +2916,47 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P33" s="35"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="7"/>
@@ -2608,35 +2975,47 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="7"/>
@@ -2655,35 +3034,47 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P35" s="35"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="7"/>
@@ -2702,36 +3093,48 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" s="42"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -2749,36 +3152,48 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" s="42"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -2796,36 +3211,48 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="42"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -2843,35 +3270,47 @@
         <v>33.0</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P39" s="35"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="7"/>
@@ -2890,36 +3329,48 @@
         <v>34.0</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" s="42"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -2937,35 +3388,47 @@
         <v>35.0</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O41" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="P41" s="35"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="7"/>
@@ -2984,35 +3447,47 @@
         <v>36.0</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="P42" s="35"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="7"/>
@@ -3031,35 +3506,47 @@
         <v>37.0</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="P43" s="35"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="7"/>
@@ -3078,10 +3565,10 @@
         <v>38.0</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="35">
@@ -3090,23 +3577,35 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M44" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O44" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P44" s="35"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="7"/>
@@ -3125,10 +3624,10 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="35">
@@ -3137,23 +3636,35 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+        <v>116</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O45" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P45" s="35"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="7"/>
@@ -3172,35 +3683,47 @@
         <v>40.0</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I46" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J46" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M46" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O46" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P46" s="35"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="7"/>
@@ -3219,35 +3742,47 @@
         <v>41.0</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O47" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P47" s="35"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="7"/>
@@ -3266,10 +3801,10 @@
         <v>42.0</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="35">
@@ -3278,24 +3813,36 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J48" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O48" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" s="42"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -3313,10 +3860,10 @@
         <v>43.0</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="35">
@@ -3325,23 +3872,35 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O49" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="P49" s="35"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="7"/>
@@ -3367,13 +3926,13 @@
       <c r="G50" s="39"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="41"/>
+      <c r="J50" s="42"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
-      <c r="P50" s="41"/>
+      <c r="P50" s="42"/>
       <c r="Q50" s="21"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -3396,14 +3955,14 @@
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="45"/>
-      <c r="H51" s="41"/>
+      <c r="H51" s="42"/>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="35"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
       <c r="P51" s="35"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="7"/>
@@ -3429,11 +3988,11 @@
       <c r="G52" s="45"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
-      <c r="N52" s="41"/>
+      <c r="N52" s="42"/>
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="21"/>
@@ -3463,8 +4022,8 @@
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
       <c r="O53" s="35"/>
       <c r="P53" s="35"/>
       <c r="Q53" s="21"/>
@@ -3492,10 +4051,10 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
-      <c r="K54" s="41"/>
+      <c r="K54" s="42"/>
       <c r="L54" s="35"/>
       <c r="M54" s="35"/>
-      <c r="N54" s="41"/>
+      <c r="N54" s="42"/>
       <c r="O54" s="35"/>
       <c r="P54" s="35"/>
       <c r="Q54" s="21"/>
@@ -3524,7 +4083,7 @@
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
-      <c r="L55" s="41"/>
+      <c r="L55" s="42"/>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
@@ -3582,11 +4141,11 @@
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
       <c r="G57" s="45"/>
-      <c r="H57" s="41"/>
+      <c r="H57" s="42"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="41"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="35"/>
-      <c r="L57" s="41"/>
+      <c r="L57" s="42"/>
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
@@ -3614,9 +4173,9 @@
       <c r="F58" s="35"/>
       <c r="G58" s="45"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="41"/>
+      <c r="I58" s="42"/>
       <c r="J58" s="35"/>
-      <c r="K58" s="41"/>
+      <c r="K58" s="42"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -3649,7 +4208,7 @@
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="41"/>
+      <c r="M59" s="42"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
       <c r="P59" s="35"/>
@@ -3679,7 +4238,7 @@
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
-      <c r="L60" s="41"/>
+      <c r="L60" s="42"/>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
@@ -3713,9 +4272,9 @@
       </c>
       <c r="G61" s="45"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="41"/>
+      <c r="I61" s="42"/>
       <c r="J61" s="35"/>
-      <c r="K61" s="41"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
@@ -3749,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="45"/>
-      <c r="H62" s="41"/>
+      <c r="H62" s="42"/>
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
@@ -3791,7 +4350,7 @@
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="35"/>
-      <c r="M63" s="41"/>
+      <c r="M63" s="42"/>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
       <c r="P63" s="35"/>
@@ -3825,7 +4384,7 @@
       <c r="G64" s="45"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
-      <c r="J64" s="41"/>
+      <c r="J64" s="42"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
@@ -3861,8 +4420,8 @@
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
       <c r="K65" s="35"/>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
@@ -3901,11 +4460,11 @@
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
-      <c r="L66" s="41"/>
+      <c r="L66" s="42"/>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="41"/>
+      <c r="P66" s="42"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -4013,7 +4572,7 @@
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="35"/>
-      <c r="M69" s="41"/>
+      <c r="M69" s="42"/>
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
       <c r="P69" s="35"/>
@@ -4046,7 +4605,7 @@
       </c>
       <c r="G70" s="45"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="41"/>
+      <c r="I70" s="42"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="35"/>
@@ -4088,7 +4647,7 @@
       <c r="K71" s="35"/>
       <c r="L71" s="35"/>
       <c r="M71" s="35"/>
-      <c r="N71" s="41"/>
+      <c r="N71" s="42"/>
       <c r="O71" s="35"/>
       <c r="P71" s="35"/>
       <c r="Q71" s="21"/>
@@ -4124,8 +4683,8 @@
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="35"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
       <c r="O72" s="35"/>
       <c r="P72" s="35"/>
       <c r="Q72" s="21"/>
@@ -4158,9 +4717,9 @@
       <c r="G73" s="45"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="41"/>
+      <c r="J73" s="42"/>
       <c r="K73" s="35"/>
-      <c r="L73" s="41"/>
+      <c r="L73" s="42"/>
       <c r="M73" s="35"/>
       <c r="N73" s="35"/>
       <c r="O73" s="35"/>
@@ -4233,9 +4792,9 @@
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
       <c r="J75" s="35"/>
-      <c r="K75" s="41"/>
+      <c r="K75" s="42"/>
       <c r="L75" s="35"/>
-      <c r="M75" s="41"/>
+      <c r="M75" s="42"/>
       <c r="N75" s="35"/>
       <c r="O75" s="35"/>
       <c r="P75" s="35"/>
@@ -4267,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="G76" s="45"/>
-      <c r="H76" s="41"/>
+      <c r="H76" s="42"/>
       <c r="I76" s="35"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="35"/>
       <c r="M76" s="35"/>
-      <c r="N76" s="41"/>
+      <c r="N76" s="42"/>
       <c r="O76" s="35"/>
       <c r="P76" s="35"/>
       <c r="Q76" s="21"/>
@@ -4305,14 +4864,14 @@
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
       <c r="K77" s="35"/>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
       <c r="Q77" s="21"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
@@ -4347,7 +4906,7 @@
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
-      <c r="N78" s="41"/>
+      <c r="N78" s="42"/>
       <c r="O78" s="35"/>
       <c r="P78" s="35"/>
       <c r="Q78" s="21"/>
@@ -4378,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="45"/>
-      <c r="H79" s="41"/>
+      <c r="H79" s="42"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
@@ -4386,7 +4945,7 @@
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
       <c r="O79" s="35"/>
-      <c r="P79" s="41"/>
+      <c r="P79" s="42"/>
       <c r="Q79" s="21"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
@@ -4419,8 +4978,8 @@
       <c r="I80" s="35"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
       <c r="N80" s="35"/>
       <c r="O80" s="35"/>
       <c r="P80" s="35"/>
@@ -4452,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="45"/>
-      <c r="H81" s="41"/>
+      <c r="H81" s="42"/>
       <c r="I81" s="35"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
@@ -4460,7 +5019,7 @@
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
       <c r="O81" s="35"/>
-      <c r="P81" s="41"/>
+      <c r="P81" s="42"/>
       <c r="Q81" s="21"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
@@ -4491,8 +5050,8 @@
       <c r="G82" s="45"/>
       <c r="H82" s="35"/>
       <c r="I82" s="35"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
@@ -4528,9 +5087,9 @@
       <c r="G83" s="45"/>
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
-      <c r="J83" s="41"/>
+      <c r="J83" s="42"/>
       <c r="K83" s="35"/>
-      <c r="L83" s="41"/>
+      <c r="L83" s="42"/>
       <c r="M83" s="35"/>
       <c r="N83" s="35"/>
       <c r="O83" s="35"/>
@@ -4567,8 +5126,8 @@
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
       <c r="N84" s="35"/>
       <c r="O84" s="35"/>
       <c r="P84" s="35"/>
@@ -4601,12 +5160,12 @@
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="41"/>
+      <c r="I85" s="42"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="35"/>
       <c r="M85" s="35"/>
-      <c r="N85" s="41"/>
+      <c r="N85" s="42"/>
       <c r="O85" s="35"/>
       <c r="P85" s="35"/>
       <c r="Q85" s="21"/>
@@ -4641,9 +5200,9 @@
       <c r="I86" s="35"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
-      <c r="L86" s="41"/>
+      <c r="L86" s="42"/>
       <c r="M86" s="35"/>
-      <c r="N86" s="41"/>
+      <c r="N86" s="42"/>
       <c r="O86" s="35"/>
       <c r="P86" s="35"/>
       <c r="Q86" s="21"/>

--- a/attendance-files/CCIT/CCIT Attendance.xlsx
+++ b/attendance-files/CCIT/CCIT Attendance.xlsx
@@ -5,13 +5,11 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$6:$AA$92</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Gdvb+IgkqSFkRBCcdKRbOGKenu3I+otDxi5Od/xAI48="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="lcHwirYAF4iN1kr7zcY7COCiILY765htfYotnnUiGkA="/>
     </ext>
   </extLst>
 </workbook>
@@ -13364,7 +13362,6 @@
       <c r="G1000" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$6:$AA$92"/>
   <mergeCells count="1">
     <mergeCell ref="G4:P4"/>
   </mergeCells>
